--- a/python/two/night2 SD t1=6 t2=3 δ=0.5.xlsx
+++ b/python/two/night2 SD t1=6 t2=3 δ=0.5.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.88e-06</t>
+          <t>2e-06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.0128</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000459</t>
+          <t>0.000117</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>2.89e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>0.752</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000459</t>
+          <t>0.000117</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.02e+00</t>
+          <t>2.90e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>0.754</t>
         </is>
       </c>
     </row>
@@ -574,17 +574,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.61e-05</t>
+          <t>6.63e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.87e-01</t>
+          <t>4.99e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.863</t>
+          <t>0.0411</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.7e-10</t>
+          <t>1.19e-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.38e-06</t>
+          <t>7.61e-07</t>
         </is>
       </c>
     </row>

--- a/python/two/night2 SD t1=6 t2=3 δ=0.5.xlsx
+++ b/python/two/night2 SD t1=6 t2=3 δ=0.5.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2e-06</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0152</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.00e+00</t>
+          <t>2.70e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>0.981</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.89e+00</t>
+          <t>3.28e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>0.756</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.00e+00</t>
+          <t>2.70e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>0.981</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.90e+00</t>
+          <t>3.28e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.754</t>
+          <t>0.756</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>5.13e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.63e-06</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.99e-01</t>
+          <t>4.91e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.0486</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.19e-10</t>
+          <t>8.04e-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.61e-07</t>
+          <t>9.08e-07</t>
         </is>
       </c>
     </row>
